--- a/application/Output_Sheet_original.xlsx
+++ b/application/Output_Sheet_original.xlsx
@@ -675,7 +675,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alpha</t>
+          <t>Octa</t>
         </is>
       </c>
       <c r="B5">
@@ -692,38 +692,54 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Vaibhov  Alpha</t>
+          <t>Lakw</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>51</v>
-      </c>
-      <c r="K5" t="n">
-        <v>52</v>
-      </c>
-      <c r="L5" t="n">
-        <v>53</v>
-      </c>
-      <c r="M5" t="n">
-        <v>54</v>
-      </c>
-      <c r="N5" t="n">
-        <v>55</v>
-      </c>
-      <c r="O5" t="n">
-        <v>56</v>
-      </c>
-      <c r="P5" t="n">
-        <v>57</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>58</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Fake</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Take</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Have</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Pave</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Take</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Took</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Taken</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alpha</t>
+          <t>Octa</t>
         </is>
       </c>
       <c r="B6">
@@ -740,38 +756,46 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Vaibhov Alpha2</t>
+          <t>gull</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>61</v>
+        <v/>
       </c>
       <c r="K6" t="n">
-        <v>62</v>
+        <v/>
       </c>
       <c r="L6" t="n">
-        <v>63</v>
+        <v/>
       </c>
       <c r="M6" t="n">
-        <v>64</v>
-      </c>
-      <c r="N6" t="n">
-        <v>65</v>
-      </c>
-      <c r="O6" t="n">
-        <v>66</v>
-      </c>
-      <c r="P6" t="n">
-        <v>67</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>68</v>
+        <v/>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>gome</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>six</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>fix</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>hix</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alpha</t>
+          <t>Octa</t>
         </is>
       </c>
       <c r="B7">
@@ -788,32 +812,48 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>70Alpha</t>
+          <t>apple</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>71</v>
-      </c>
-      <c r="K7" t="n">
-        <v>72</v>
-      </c>
-      <c r="L7" t="n">
-        <v>73</v>
-      </c>
-      <c r="M7" t="n">
-        <v>74</v>
-      </c>
-      <c r="N7" t="n">
-        <v>75</v>
-      </c>
-      <c r="O7" t="n">
-        <v>76</v>
-      </c>
-      <c r="P7" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>78</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>TIT</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>NIT</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>LIT</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>GONE</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>WENT</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1976,7 +2016,7 @@
     <row r="5">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>Beta</t>
+          <t>Octa</t>
         </is>
       </c>
       <c r="B5" s="4">
@@ -2005,95 +2045,45 @@
       </c>
       <c r="K5" s="10" t="inlineStr">
         <is>
-          <t>Beta_CII2</t>
+          <t>6.6.6.6/21</t>
         </is>
       </c>
       <c r="L5" s="10" t="inlineStr">
         <is>
-          <t>Beta_CNHI2</t>
+          <t>6.2.2.2/32</t>
         </is>
       </c>
       <c r="M5" s="10" t="inlineStr">
         <is>
-          <t>CII2</t>
+          <t>14.14.14.14/30</t>
         </is>
       </c>
       <c r="N5" s="10" t="inlineStr">
         <is>
-          <t>CNHI2</t>
+          <t>20.20.20.20/32</t>
         </is>
       </c>
-      <c r="O5" s="10" t="inlineStr">
-        <is>
-          <t>Beta_lan2</t>
-        </is>
-      </c>
-      <c r="P5" s="10" t="inlineStr">
-        <is>
-          <t>lan2</t>
-        </is>
+      <c r="O5" s="10" t="n">
+        <v>9999</v>
+      </c>
+      <c r="P5" s="10" t="n">
+        <v>5559</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>Alpha</t>
-        </is>
-      </c>
-      <c r="B6" s="4">
-        <f>IF(A6=0,"","Bose_band")</f>
-        <v/>
-      </c>
-      <c r="C6" s="4">
-        <f>IF(A6=0,"","20.Q3")</f>
-        <v/>
-      </c>
-      <c r="G6" s="4">
-        <f>IF(A6=0,"","template name_2")</f>
-        <v/>
-      </c>
-      <c r="H6" s="4">
-        <f>IF(A6=0,"","SubNetwork=ABCD,SubNetwork=RADIOWATCH,MeetContext=Mega")</f>
-        <v/>
-      </c>
-      <c r="I6" s="9">
-        <f>A6</f>
-        <v/>
-      </c>
-      <c r="J6" s="9">
-        <f>A6</f>
-        <v/>
-      </c>
-      <c r="K6" s="10" t="inlineStr">
-        <is>
-          <t>alpha_lfaCII1</t>
-        </is>
-      </c>
-      <c r="L6" s="10" t="inlineStr">
-        <is>
-          <t>alpha_CNHI1</t>
-        </is>
-      </c>
-      <c r="M6" s="10" t="inlineStr">
-        <is>
-          <t>CII1</t>
-        </is>
-      </c>
-      <c r="N6" s="10" t="inlineStr">
-        <is>
-          <t>CNHI1</t>
-        </is>
-      </c>
-      <c r="O6" s="10" t="inlineStr">
-        <is>
-          <t>alpha_lan1</t>
-        </is>
-      </c>
-      <c r="P6" s="10" t="inlineStr">
-        <is>
-          <t>lan1</t>
-        </is>
-      </c>
+      <c r="A6" s="9" t="inlineStr"/>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
+      <c r="I6" s="9" t="inlineStr"/>
+      <c r="J6" s="9" t="inlineStr"/>
+      <c r="K6" s="10" t="inlineStr"/>
+      <c r="L6" s="10" t="inlineStr"/>
+      <c r="M6" s="10" t="inlineStr"/>
+      <c r="N6" s="10" t="inlineStr"/>
+      <c r="O6" s="10" t="inlineStr"/>
+      <c r="P6" s="10" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="inlineStr"/>
@@ -46990,7 +46980,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Beta</t>
+          <t>Octa</t>
         </is>
       </c>
       <c r="B5">
@@ -47011,23 +47001,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Alpha</t>
-        </is>
-      </c>
-      <c r="B6">
-        <f>IF(A6=0,"","Bose_band")</f>
-        <v/>
-      </c>
-      <c r="C6">
-        <f>IF(A6=0,"","20.Q3")</f>
-        <v/>
-      </c>
-      <c r="G6">
-        <f>IF(A6=0,"","template name_2")</f>
-        <v/>
-      </c>
       <c r="H6">
         <f>IF(A6=0,"","BBBBBBBBB")</f>
         <v/>
